--- a/public/input-data.xlsx
+++ b/public/input-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirya\Desktop\работа\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirya\Desktop\contry-sort\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Страны\ИМГ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>США</t>
   </si>
@@ -71,25 +69,76 @@
     <t>ИМГ</t>
   </si>
   <si>
-    <t>Страна1</t>
-  </si>
-  <si>
-    <t>Страна2</t>
-  </si>
-  <si>
-    <t>Страна3</t>
-  </si>
-  <si>
-    <t>Страна4</t>
-  </si>
-  <si>
-    <t>Страна5</t>
-  </si>
-  <si>
-    <t>Страна6</t>
-  </si>
-  <si>
-    <t>Страна7</t>
+    <t>№п.п</t>
+  </si>
+  <si>
+    <t>Критерий</t>
+  </si>
+  <si>
+    <t>Единица измерения</t>
+  </si>
+  <si>
+    <t>Вес критерия</t>
+  </si>
+  <si>
+    <t>Член НАТО</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>Ядерное оружие</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>Подводные лодки</t>
+  </si>
+  <si>
+    <t>0.1564</t>
+  </si>
+  <si>
+    <t>Артеллерия</t>
+  </si>
+  <si>
+    <t>0.2342</t>
+  </si>
+  <si>
+    <t>Критерий1</t>
+  </si>
+  <si>
+    <t>0.3120</t>
+  </si>
+  <si>
+    <t>Критерий2</t>
+  </si>
+  <si>
+    <t>0.3898</t>
+  </si>
+  <si>
+    <t>Критерий3</t>
+  </si>
+  <si>
+    <t>0.4676</t>
+  </si>
+  <si>
+    <t>Критерий4</t>
+  </si>
+  <si>
+    <t>0.5454</t>
+  </si>
+  <si>
+    <t>Критерий5</t>
+  </si>
+  <si>
+    <t>0.6232</t>
+  </si>
+  <si>
+    <t>Страны</t>
   </si>
 </sst>
 </file>
@@ -407,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,34 +470,35 @@
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>43</v>
@@ -472,7 +522,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>42</v>
@@ -490,13 +540,13 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G16" si="0">SUM(B3:F3)</f>
+        <f t="shared" ref="G3:G9" si="0">SUM(B3:F3)</f>
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>44</v>
@@ -520,7 +570,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>32</v>
@@ -544,7 +594,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>75</v>
@@ -568,7 +618,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>71</v>
@@ -592,7 +642,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>66</v>
@@ -616,7 +666,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>81</v>
@@ -638,172 +688,159 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>81</v>
-      </c>
-      <c r="C10">
-        <v>73</v>
-      </c>
-      <c r="D10">
-        <v>61</v>
-      </c>
-      <c r="E10">
-        <v>74</v>
-      </c>
-      <c r="F10">
-        <v>55</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>82</v>
-      </c>
-      <c r="C11">
-        <v>74</v>
-      </c>
-      <c r="D11">
-        <v>62</v>
-      </c>
-      <c r="E11">
-        <v>75</v>
-      </c>
-      <c r="F11">
-        <v>56</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>83</v>
-      </c>
-      <c r="C12">
-        <v>75</v>
-      </c>
-      <c r="D12">
-        <v>63</v>
-      </c>
-      <c r="E12">
-        <v>76</v>
-      </c>
-      <c r="F12">
-        <v>57</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>84</v>
-      </c>
-      <c r="C13">
-        <v>76</v>
-      </c>
-      <c r="D13">
-        <v>64</v>
-      </c>
-      <c r="E13">
-        <v>77</v>
-      </c>
-      <c r="F13">
-        <v>58</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>85</v>
-      </c>
-      <c r="C14">
-        <v>77</v>
-      </c>
-      <c r="D14">
-        <v>65</v>
-      </c>
-      <c r="E14">
-        <v>78</v>
-      </c>
-      <c r="F14">
-        <v>59</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>86</v>
-      </c>
-      <c r="C15">
-        <v>78</v>
-      </c>
-      <c r="D15">
-        <v>66</v>
-      </c>
-      <c r="E15">
-        <v>79</v>
-      </c>
-      <c r="F15">
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>87</v>
-      </c>
-      <c r="C16">
-        <v>79</v>
-      </c>
-      <c r="D16">
-        <v>67</v>
-      </c>
-      <c r="E16">
-        <v>80</v>
-      </c>
-      <c r="F16">
-        <v>61</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>374</v>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
